--- a/LB2/M300-LB2-Bewertungsraster-Pethurupillai.xlsx
+++ b/LB2/M300-LB2-Bewertungsraster-Pethurupillai.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26220"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tbzedu-my.sharepoint.com/personal/philipp_rohr_tbz_ch/Documents/Home/TBZ/02_Module/Modul 300/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thars\M300T\LB2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A82DE91-4101-46B6-9219-D13F6086DFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46854715-A8F3-43E4-9592-CD0EC33ACDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="T39SBz9PCzYEyvmTiztttuQm3kpiak2kNWTG9+ZiqKz/7cN+ILpmFdsTRbqUg/IKbtKiDNZGKbXo/xgZP9qOvA==" workbookSaltValue="q1xnJ8bbr5iHZQF+idyGxA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M262 - Fallstudie LB2" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,9 @@
   <commentList>
     <comment ref="B2" authorId="0" shapeId="0" xr:uid="{FFABAE7A-E58C-4405-A877-A44658A6DD81}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     4 P. = Es sind mehr als vier Kriterien erfüllt
 3 P. = Es sind drei Kriterien erfüllt
 2 P. = Es sind zwei Kriterien erfüllt
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>M300 - LB2 - Selbsteinschätzung und Bewertung</t>
   </si>
@@ -987,12 +987,27 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>Alle verlangten Kriterien wurden erfüllt.</t>
+  </si>
+  <si>
+    <t>Die gewählte Methode war Markdown und ist im Github ersichtlich. Alle Kriterien wurde erfüllt.</t>
+  </si>
+  <si>
+    <t>Netzwerkplan wurde erstellt und das Projekt wurde dokumentiert. Alle verlangten Kriterien wurden erfüllt.</t>
+  </si>
+  <si>
+    <t>5/6 Kriterien wurden erfüllt und somit 4 Punkte.</t>
+  </si>
+  <si>
+    <t>Reflextion un Wissenszuwachs wurde wochentlich dokumentiert. Komplexität wurde anhand von Docker-betriebenes System erfüllt . Die Kreativität wurde auch erfüllt. 4/8 Kriterien.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1867,7 +1882,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2177,11 +2192,11 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="3" width="18.7109375" customWidth="1"/>
@@ -2193,12 +2208,12 @@
     <col min="10" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
@@ -2206,7 +2221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60.75" customHeight="1">
+    <row r="3" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -2229,11 +2244,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="127.5">
+    <row r="4" spans="1:7" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="18">
+        <v>4</v>
+      </c>
       <c r="C4" s="17" t="str">
         <f>IF(Table1[[#This Row],[Punkte 
 Bewertung Lehrperson
@@ -2244,16 +2261,20 @@
 1-4]],1,2))</f>
         <v/>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="7"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="168.75">
+    <row r="5" spans="1:7" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="18">
+        <v>4</v>
+      </c>
       <c r="C5" s="17" t="str">
         <f>IF(Table1[[#This Row],[Punkte 
 Bewertung Lehrperson
@@ -2264,16 +2285,20 @@
 1-4]],1,2))</f>
         <v/>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="7"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="138.75">
+    <row r="6" spans="1:7" ht="138.75" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="18">
+        <v>4</v>
+      </c>
       <c r="C6" s="17" t="str">
         <f>IF(Table1[[#This Row],[Punkte 
 Bewertung Lehrperson
@@ -2284,16 +2309,20 @@
 1-4]],1,2))</f>
         <v/>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="12"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="123.75">
+    <row r="7" spans="1:7" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="18">
+        <v>4</v>
+      </c>
       <c r="C7" s="17" t="str">
         <f>IF(Table1[[#This Row],[Punkte 
 Bewertung Lehrperson
@@ -2304,16 +2333,20 @@
 1-4]],1,2))</f>
         <v/>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="12"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="183.75">
+    <row r="8" spans="1:7" ht="183.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="18">
+        <v>3</v>
+      </c>
       <c r="C8" s="17" t="str">
         <f>IF(Table1[[#This Row],[Punkte 
 Bewertung Lehrperson
@@ -2324,12 +2357,14 @@
 1-4]],1,2))</f>
         <v/>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="12"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -2337,7 +2372,7 @@
         <f>SUM(Table1[Punkte
 Selbsteinschätzung
 1-4])</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="10"/>
@@ -2350,12 +2385,12 @@
       <c r="F9" s="10"/>
       <c r="G9" s="2">
         <f>IF(E9=0,ROUND(B9*5/20+1,1),ROUND(E9*5/20+1,1))</f>
-        <v>1</v>
+        <v>5.8</v>
       </c>
     </row>
-    <row r="10" spans="1:7"/>
-    <row r="11" spans="1:7"/>
-    <row r="12" spans="1:7"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="cUnQfOrP/Kz4F5v10haCes9TLY7xUt/AmOb4p2iN+1P9aXzm3hexDAVnFSHn0STMek/aV68IWdYNffftIxkGDA==" saltValue="DHF9/5DbKFl8PSYVuZA3dQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertHyperlinks="0" selectLockedCells="1"/>
   <phoneticPr fontId="21" type="noConversion"/>
@@ -2409,6 +2444,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="c4c4ca25-263a-4151-898e-d1eea17c6064" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100A4E6D3AA2C712F4986F6D4D407A2BE5C" ma:contentTypeVersion="1" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="82e2f90192dfcf8c188f184effc426de">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c4c4ca25-263a-4151-898e-d1eea17c6064" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ce62e76a95f6e899128d5564a08000fc" ns2:_="">
     <xsd:import namespace="c4c4ca25-263a-4151-898e-d1eea17c6064"/>
@@ -2534,22 +2577,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="c4c4ca25-263a-4151-898e-d1eea17c6064" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45DF30BB-23F8-46AF-897E-8E6F6F29075A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45DF30BB-23F8-46AF-897E-8E6F6F29075A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D95AE1E-AB6F-4F6C-B6A4-818B27132CE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5D7AE2A-BA68-40E1-9EA9-40C245DC440D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c4c4ca25-263a-4151-898e-d1eea17c6064"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5D7AE2A-BA68-40E1-9EA9-40C245DC440D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D95AE1E-AB6F-4F6C-B6A4-818B27132CE5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c4c4ca25-263a-4151-898e-d1eea17c6064"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/LB2/M300-LB2-Bewertungsraster-Pethurupillai.xlsx
+++ b/LB2/M300-LB2-Bewertungsraster-Pethurupillai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thars\M300T\LB2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46854715-A8F3-43E4-9592-CD0EC33ACDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EC9FBA-4FEA-4BAB-89BD-AB93CF11CA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="T39SBz9PCzYEyvmTiztttuQm3kpiak2kNWTG9+ZiqKz/7cN+ILpmFdsTRbqUg/IKbtKiDNZGKbXo/xgZP9qOvA==" workbookSaltValue="q1xnJ8bbr5iHZQF+idyGxA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -994,13 +994,13 @@
     <t>Die gewählte Methode war Markdown und ist im Github ersichtlich. Alle Kriterien wurde erfüllt.</t>
   </si>
   <si>
-    <t>Netzwerkplan wurde erstellt und das Projekt wurde dokumentiert. Alle verlangten Kriterien wurden erfüllt.</t>
+    <t xml:space="preserve">Netzwerkplan wurde erstellt und das Projekt wurde dokumentiert. Alle verlangten Kriterien wurden erfüllt. </t>
   </si>
   <si>
-    <t>5/6 Kriterien wurden erfüllt und somit 4 Punkte.</t>
+    <t>Alle Kriterien wurden erfüllt. (Kriterien die nicht im Projekt möglich waren, wurden extern ausgeführt und dokumentiert.</t>
   </si>
   <si>
-    <t>Reflextion un Wissenszuwachs wurde wochentlich dokumentiert. Komplexität wurde anhand von Docker-betriebenes System erfüllt . Die Kreativität wurde auch erfüllt. 4/8 Kriterien.</t>
+    <t>Reflextion un Wissenszuwachs wurde wochentlich dokumentiert. Komplexität wurde anhand von Docker-betriebenes System erfüllt . Die Kreativität wurde auch erfüllt. Die LB2 war umfangreich, da Kriterien nicht im Rahmen des Produktes dokumentiert wurden, weil es nicht möglich das. 5/8 Kriterien.</t>
   </si>
 </sst>
 </file>
@@ -2192,8 +2192,8 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2435,23 +2435,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="c4c4ca25-263a-4151-898e-d1eea17c6064" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100A4E6D3AA2C712F4986F6D4D407A2BE5C" ma:contentTypeVersion="1" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="82e2f90192dfcf8c188f184effc426de">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c4c4ca25-263a-4151-898e-d1eea17c6064" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ce62e76a95f6e899128d5564a08000fc" ns2:_="">
     <xsd:import namespace="c4c4ca25-263a-4151-898e-d1eea17c6064"/>
@@ -2577,10 +2560,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="c4c4ca25-263a-4151-898e-d1eea17c6064" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45DF30BB-23F8-46AF-897E-8E6F6F29075A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D95AE1E-AB6F-4F6C-B6A4-818B27132CE5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c4c4ca25-263a-4151-898e-d1eea17c6064"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2596,19 +2606,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D95AE1E-AB6F-4F6C-B6A4-818B27132CE5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45DF30BB-23F8-46AF-897E-8E6F6F29075A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c4c4ca25-263a-4151-898e-d1eea17c6064"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>